--- a/results/jdbc_spring-jdbc_hibernate_spring-data-jpa_my-batis.xlsx
+++ b/results/jdbc_spring-jdbc_hibernate_spring-data-jpa_my-batis.xlsx
@@ -346,11 +346,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120617702"/>
-        <c:axId val="1237669315"/>
+        <c:axId val="1838225797"/>
+        <c:axId val="179690980"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120617702"/>
+        <c:axId val="1838225797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,13 +360,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1237669315"/>
+        <c:crossAx val="179690980"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1237669315"/>
+        <c:axId val="179690980"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -381,7 +381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120617702"/>
+        <c:crossAx val="1838225797"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -428,7 +428,7 @@
         <xdr:cNvPr id="1" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09a579cd-ad8d-42c7-b455-a8ac1b23f62d}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670852b9-974c-4365-a724-0f7213e0aa95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -745,7 +745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5667afbd-3571-4943-8b7a-89826995f074}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d288bcb1-0ddc-4a4a-82e1-e89f67e47ae1}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.2906</v>
+        <v>1.2822</v>
       </c>
       <c r="C2">
-        <v>1.3088</v>
+        <v>1.2561</v>
       </c>
       <c r="D2">
-        <v>1.8484</v>
+        <v>1.7989000000000002</v>
       </c>
       <c r="E2">
-        <v>2.0211</v>
+        <v>1.9413</v>
       </c>
       <c r="F2">
-        <v>7.3188</v>
+        <v>6.8088999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
@@ -794,19 +794,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.18969999999999998</v>
+        <v>0.465</v>
       </c>
       <c r="C3">
-        <v>0.19619999999999999</v>
+        <v>0.189</v>
       </c>
       <c r="D3">
-        <v>0.2022</v>
+        <v>0.2013</v>
       </c>
       <c r="E3">
-        <v>0.206</v>
+        <v>0.1986</v>
       </c>
       <c r="F3">
-        <v>0.1982</v>
+        <v>0.2014</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -814,19 +814,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.676</v>
+        <v>0.7471</v>
       </c>
       <c r="C4">
-        <v>0.6826</v>
+        <v>0.6633</v>
       </c>
       <c r="D4">
-        <v>0.6708999999999999</v>
+        <v>0.6602</v>
       </c>
       <c r="E4">
-        <v>0.7104</v>
+        <v>0.6592</v>
       </c>
       <c r="F4">
-        <v>0.6706</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75">
@@ -834,19 +834,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8536</v>
+        <v>0.8664</v>
       </c>
       <c r="C5">
-        <v>0.8682000000000001</v>
+        <v>0.8498</v>
       </c>
       <c r="D5">
-        <v>0.8533</v>
+        <v>0.8493999999999999</v>
       </c>
       <c r="E5">
-        <v>0.8806</v>
+        <v>0.8402999999999999</v>
       </c>
       <c r="F5">
-        <v>0.8503</v>
+        <v>0.8482999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19604514-c138-47c0-a21a-e64029fc5440}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1e981652-61c5-4faf-9ab5-5eb2c6d99e85}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
